--- a/config_aomi_10.12/game_module_config.xlsx
+++ b/config_aomi_10.12/game_module_config.xlsx
@@ -4622,7 +4622,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C308" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B317" sqref="B317"/>
+      <selection pane="bottomRight" activeCell="F329" sqref="F329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13098,13 +13098,13 @@
         <v>970</v>
       </c>
       <c r="E333" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F333" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G333" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I333" s="51">
         <v>44355</v>
